--- a/inst/stations.xlsx
+++ b/inst/stations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip Akkad\Documents\MOJE\PROGRAMOWANIE\dk2021\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1D52D2B-E081-48E2-A98C-848BC493166A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541999EE-F3F3-47EF-AF02-DADF7711E7E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -244,11 +244,23 @@
   <si>
     <t>Stacja XIV</t>
   </si>
+  <si>
+    <t>dist_from_station</t>
+  </si>
+  <si>
+    <t>cumdist</t>
+  </si>
+  <si>
+    <t>dist_to_station</t>
+  </si>
+  <si>
+    <t>dist_to_last_station</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1086,11 +1098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="135.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1114,7 @@
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1133,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1141,8 +1165,20 @@
       <c r="F2">
         <v>20.940650000000002</v>
       </c>
+      <c r="G2">
+        <v>12.023853596625155</v>
+      </c>
+      <c r="H2">
+        <v>138.43190661935282</v>
+      </c>
+      <c r="I2">
+        <v>12.023853596625155</v>
+      </c>
+      <c r="J2">
+        <v>10.32226921035695</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1197,20 @@
       <c r="F3">
         <v>20.864018999999999</v>
       </c>
+      <c r="G3">
+        <v>10.32226921035695</v>
+      </c>
+      <c r="H3">
+        <v>128.10963740899587</v>
+      </c>
+      <c r="I3">
+        <v>22.346122806982105</v>
+      </c>
+      <c r="J3">
+        <v>6.5241405717842227</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1181,8 +1229,20 @@
       <c r="F4">
         <v>20.882126</v>
       </c>
+      <c r="G4">
+        <v>6.5241405717842227</v>
+      </c>
+      <c r="H4">
+        <v>121.58549683721164</v>
+      </c>
+      <c r="I4">
+        <v>28.870263378766328</v>
+      </c>
+      <c r="J4">
+        <v>11.234440471135404</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1201,8 +1261,20 @@
       <c r="F5">
         <v>20.899054</v>
       </c>
+      <c r="G5">
+        <v>11.234440471135404</v>
+      </c>
+      <c r="H5">
+        <v>110.35105636607622</v>
+      </c>
+      <c r="I5">
+        <v>40.104703849901732</v>
+      </c>
+      <c r="J5">
+        <v>9.9615367190808968</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1221,8 +1293,20 @@
       <c r="F6">
         <v>20.934275</v>
       </c>
+      <c r="G6">
+        <v>9.9615367190808968</v>
+      </c>
+      <c r="H6">
+        <v>100.38951964699532</v>
+      </c>
+      <c r="I6">
+        <v>50.066240568982629</v>
+      </c>
+      <c r="J6">
+        <v>12.583787094408244</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1241,8 +1325,20 @@
       <c r="F7">
         <v>21.036114999999999</v>
       </c>
+      <c r="G7">
+        <v>12.583787094408244</v>
+      </c>
+      <c r="H7">
+        <v>87.805732552587088</v>
+      </c>
+      <c r="I7">
+        <v>62.650027663390873</v>
+      </c>
+      <c r="J7">
+        <v>7.620805790739837</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1261,8 +1357,20 @@
       <c r="F8">
         <v>21.066102000000001</v>
       </c>
+      <c r="G8">
+        <v>7.620805790739837</v>
+      </c>
+      <c r="H8">
+        <v>80.184926761847251</v>
+      </c>
+      <c r="I8">
+        <v>70.27083345413071</v>
+      </c>
+      <c r="J8">
+        <v>11.820992558168896</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1281,8 +1389,20 @@
       <c r="F9">
         <v>21.158937999999999</v>
       </c>
+      <c r="G9">
+        <v>11.820992558168896</v>
+      </c>
+      <c r="H9">
+        <v>68.363934203678355</v>
+      </c>
+      <c r="I9">
+        <v>82.091826012299606</v>
+      </c>
+      <c r="J9">
+        <v>14.28341088948379</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1301,8 +1421,20 @@
       <c r="F10">
         <v>21.272423</v>
       </c>
+      <c r="G10">
+        <v>14.28341088948379</v>
+      </c>
+      <c r="H10">
+        <v>54.080523314194565</v>
+      </c>
+      <c r="I10">
+        <v>96.375236901783396</v>
+      </c>
+      <c r="J10">
+        <v>12.009011331722363</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1321,8 +1453,20 @@
       <c r="F11">
         <v>21.233705</v>
       </c>
+      <c r="G11">
+        <v>12.009011331722363</v>
+      </c>
+      <c r="H11">
+        <v>42.071511982472202</v>
+      </c>
+      <c r="I11">
+        <v>108.38424823350576</v>
+      </c>
+      <c r="J11">
+        <v>6.2184188243602847</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1341,8 +1485,20 @@
       <c r="F12">
         <v>21.195879000000001</v>
       </c>
+      <c r="G12">
+        <v>6.2184188243602847</v>
+      </c>
+      <c r="H12">
+        <v>35.853093158111918</v>
+      </c>
+      <c r="I12">
+        <v>114.60266705786604</v>
+      </c>
+      <c r="J12">
+        <v>12.980869398915914</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1361,8 +1517,20 @@
       <c r="F13">
         <v>21.131062</v>
       </c>
+      <c r="G13">
+        <v>12.980869398915914</v>
+      </c>
+      <c r="H13">
+        <v>22.872223759196004</v>
+      </c>
+      <c r="I13">
+        <v>127.58353645678196</v>
+      </c>
+      <c r="J13">
+        <v>16.522652329652942</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1381,8 +1549,20 @@
       <c r="F14">
         <v>21.015211999999998</v>
       </c>
+      <c r="G14">
+        <v>16.522652329652942</v>
+      </c>
+      <c r="H14">
+        <v>6.3495714295430616</v>
+      </c>
+      <c r="I14">
+        <v>144.1061887864349</v>
+      </c>
+      <c r="J14">
+        <v>6.3495714295430616</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1400,6 +1580,18 @@
       </c>
       <c r="F15">
         <v>20.992716999999999</v>
+      </c>
+      <c r="G15">
+        <v>6.3495714295430616</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>150.45576021597796</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
